--- a/story_xlsx_files_postpilotiiedits/43.xlsx
+++ b/story_xlsx_files_postpilotiiedits/43.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">The store they had entered looked like a warehouse, with high, black ceilings, industrial lights, and large packages of food. </t>
   </si>
   <si>
-    <t>In the meat section, Carina and Simon were looking over the same cuts of meat, because they were both preparing for barbecues.</t>
+    <t>In the meat section, Carina and Simon were looking over the same cuts of meat, because they were both preparing for barbecues that evening.</t>
   </si>
   <si>
     <t>Simon had wanted to talk to Carina, and Carina had wanted to say something to Simon, but they felt embarrassed striking up a conversation with a stranger.</t>
